--- a/new개발.xlsx
+++ b/new개발.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>작업내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모듈화 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -292,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>magnetList는 magnet주소를 변수로 넘기는 처리가 더 귀찮으므로 남김</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,6 +303,19 @@
     <t>main.ejs
 main.js
 torrentView.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux.js
+linix.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스/로그 관련 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -720,14 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -780,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -794,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -811,9 +815,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="168.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>43761</v>
@@ -833,43 +837,57 @@
     </row>
     <row r="6" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>43765</v>
       </c>
+      <c r="C6" s="3">
+        <v>43773</v>
+      </c>
       <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>43766</v>
       </c>
+      <c r="C7" s="3">
+        <v>43773</v>
+      </c>
       <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F7">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="진행"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F7"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
